--- a/data/long_dif/P16-Urba-long_dif.xlsx
+++ b/data/long_dif/P16-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,66</t>
+          <t>15,64; 23,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 32,15</t>
+          <t>20,82; 33,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 21,21</t>
+          <t>13,62; 21,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,54</t>
+          <t>16,82; 27,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,77</t>
+          <t>17,81; 25,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,75</t>
+          <t>13,47; 21,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 25,45</t>
+          <t>14,49; 20,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 19,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 22,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 23,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 25,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 19,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 23,33</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>53,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>58,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>50,11%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,71; 61,89</t>
+          <t>52,83; 63,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 59,78</t>
+          <t>46,47; 59,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,23; 65,65</t>
+          <t>55,32; 65,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,6; 59,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,21; 60,17</t>
+          <t>40,97; 53,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,07; 59,3</t>
+          <t>50,95; 59,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,47; 59,26</t>
+          <t>51,23; 60,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 58,56</t>
+          <t>52,18; 59,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,33; 60,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47,63; 57,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,99; 59,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51,02; 58,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>54,99; 61,38</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>45,96; 54,02</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>29,9%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,07; 31,15</t>
+          <t>19,52; 28,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 25,55</t>
+          <t>16,57; 24,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,94</t>
+          <t>18,34; 26,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 27,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 30,87</t>
+          <t>24,95; 38,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 32,11</t>
+          <t>19,96; 27,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,18</t>
+          <t>23,53; 31,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,92; 26,59</t>
+          <t>22,59; 30,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 28,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 33,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 26,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 27,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 27,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 34,18</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 26,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 26,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 31,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 28,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 23,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 23,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,65; 61,71</t>
+          <t>14,41; 22,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,02; 63,16</t>
+          <t>17,14; 26,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,46; 61,74</t>
+          <t>16,82; 26,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,35; 55,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,22; 56,65</t>
+          <t>12,12; 45,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,77; 59,9</t>
+          <t>21,85; 30,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,03; 57,44</t>
+          <t>14,36; 24,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,63; 57,96</t>
+          <t>16,02; 24,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,27; 59,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 35,73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,5; 25,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 23,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,32; 23,43</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 37,81</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>51,01%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,99; 29,25</t>
+          <t>50,91; 62,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 28,52</t>
+          <t>50,27; 62,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,71</t>
+          <t>50,63; 61,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,33; 27,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,85; 35,79</t>
+          <t>35,69; 60,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,22; 28,88</t>
+          <t>45,85; 56,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,37</t>
+          <t>45,14; 55,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,31; 30,83</t>
+          <t>50,83; 60,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,53; 26,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40,83; 61,78</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50,15; 57,86</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>49,36; 57,72</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>51,98; 59,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>41,39; 58,84</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 47,61</t>
+          <t>19,98; 29,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,68; 40,89</t>
+          <t>17,41; 27,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,46; 29,06</t>
+          <t>18,3; 27,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 22,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 26,56</t>
+          <t>16,6; 35,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,35</t>
+          <t>18,78; 28,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 33,4</t>
+          <t>25,59; 35,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,98; 30,35</t>
+          <t>20,88; 29,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 32,46</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 27,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 30,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>21,17; 27,2</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 31,43</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,46; 52,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,62; 53,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,02; 63,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52,9; 71,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,2; 73,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,97; 70,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,79; 59,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,52; 60,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50,83; 64,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,49; 44,03</t>
+          <t>17,35; 50,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,7; 44,03</t>
+          <t>18,11; 38,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,89; 35,49</t>
+          <t>12,79; 28,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,68; 30,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,9; 27,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,17; 33,58</t>
+          <t>10,36; 24,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,46; 34,75</t>
+          <t>10,45; 25,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,96; 33,37</t>
+          <t>7,13; 19,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,2; 31,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 36,39</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 29,22</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 21,31</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>52,79%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>58,25%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,94</t>
+          <t>28,67; 52,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,96; 28,43</t>
+          <t>29,97; 53,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,32</t>
+          <t>44,42; 64,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,42; 19,73</t>
+          <t>51,56; 70,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,3</t>
+          <t>53,4; 72,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,67</t>
+          <t>52,86; 70,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,58; 20,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43,23; 59,43</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>44,42; 61,1</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>52,05; 64,76</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>26,38%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>50,22; 58,53</t>
+          <t>20,49; 41,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>49,02; 57,47</t>
+          <t>19,02; 48,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,24; 60,94</t>
+          <t>17,91; 35,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>51,46; 57,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>51,12; 57,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>53,33; 59,1</t>
+          <t>15,1; 30,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>51,79; 56,84</t>
+          <t>12,26; 27,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>51,29; 56,82</t>
+          <t>17,98; 33,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>54,56; 59,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 33,73</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 35,81</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 32,31</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,69; 27,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,71; 26,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 23,36</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 28,38</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 22,21</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 29,18</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 25,44</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 20,72</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 19,95</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 23,7</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 23,46</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 23,34</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 20,41</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 24,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>48,55%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>54,28%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>54,67%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>54,04%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>57,27%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>50,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>51,79; 59,45</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>49,23; 57,91</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 61,29</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>41,57; 53,7</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>50,89; 57,77</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>51,19; 57,99</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>53,77; 59,73</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>47,62; 56,31</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>52,24; 57,21</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 56,67</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>55,05; 59,54</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>46,67; 53,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 27,57</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 25,81</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 25,91</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,78; 35,79</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 26,02</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 30,72</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 28,37</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 31,9</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 25,93</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 27,29</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 26,27</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 32,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P16-Urba-long_dif.xlsx
+++ b/data/long_dif/P16-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -693,7 +693,7 @@
         <v>0.1724719477736127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0</v>
+        <v>0.1968411591843607</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2200617511002074</v>
@@ -708,7 +708,7 @@
         <v>0.172681436104547</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
+        <v>0.2030070943447527</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>0.1872498089188891</v>
@@ -723,7 +723,7 @@
         <v>0.1725819696342407</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.2000719662715984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>0.2033357058797866</v>
@@ -745,7 +745,9 @@
       <c r="E5" s="5" t="n">
         <v>0.1369818403833311</v>
       </c>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0.1513340314220417</v>
+      </c>
       <c r="G5" s="5" t="n">
         <v>0.1730460077740119</v>
       </c>
@@ -758,7 +760,9 @@
       <c r="J5" s="5" t="n">
         <v>0.1426867084113427</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>0.1629387246737614</v>
+      </c>
       <c r="L5" s="5" t="n">
         <v>0.1547549108755734</v>
       </c>
@@ -771,7 +775,9 @@
       <c r="O5" s="5" t="n">
         <v>0.1500654215347396</v>
       </c>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="n">
+        <v>0.1703575936737602</v>
+      </c>
       <c r="Q5" s="5" t="n">
         <v>0.1704045827051593</v>
       </c>
@@ -792,7 +798,9 @@
       <c r="E6" s="5" t="n">
         <v>0.2144632743887913</v>
       </c>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>0.2514260245427895</v>
+      </c>
       <c r="G6" s="5" t="n">
         <v>0.2814956619999339</v>
       </c>
@@ -805,7 +813,9 @@
       <c r="J6" s="5" t="n">
         <v>0.2033714422036661</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.2450912929974669</v>
+      </c>
       <c r="L6" s="5" t="n">
         <v>0.2302687396085999</v>
       </c>
@@ -818,7 +828,9 @@
       <c r="O6" s="5" t="n">
         <v>0.2001576724677896</v>
       </c>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="n">
+        <v>0.2366377609717444</v>
+      </c>
       <c r="Q6" s="5" t="n">
         <v>0.2376634619007228</v>
       </c>
@@ -827,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -840,7 +852,7 @@
         <v>0.6008978639109247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0</v>
+        <v>0.4877804113338708</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.476141485584399</v>
@@ -855,7 +867,7 @@
         <v>0.5628948510282877</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0</v>
+        <v>0.5080823825224849</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>0.526108003568351</v>
@@ -870,7 +882,7 @@
         <v>0.580938937472535</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0</v>
+        <v>0.4984181736026682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>0.5016121582647376</v>
@@ -892,7 +904,9 @@
       <c r="E8" s="5" t="n">
         <v>0.5509319991295799</v>
       </c>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>0.403050393654063</v>
+      </c>
       <c r="G8" s="5" t="n">
         <v>0.4092592542518387</v>
       </c>
@@ -905,7 +919,9 @@
       <c r="J8" s="5" t="n">
         <v>0.5210478966777935</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>0.4589257473226028</v>
+      </c>
       <c r="L8" s="5" t="n">
         <v>0.4775727524505829</v>
       </c>
@@ -918,7 +934,9 @@
       <c r="O8" s="5" t="n">
         <v>0.54646684465842</v>
       </c>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="n">
+        <v>0.4495785405423021</v>
+      </c>
       <c r="Q8" s="5" t="n">
         <v>0.4601741074097312</v>
       </c>
@@ -939,7 +957,9 @@
       <c r="E9" s="5" t="n">
         <v>0.6540694141305875</v>
       </c>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>0.5506449558276141</v>
+      </c>
       <c r="G9" s="5" t="n">
         <v>0.535355353768159</v>
       </c>
@@ -952,7 +972,9 @@
       <c r="J9" s="5" t="n">
         <v>0.6017349184321424</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.5581075002827734</v>
+      </c>
       <c r="L9" s="5" t="n">
         <v>0.5789932669827889</v>
       </c>
@@ -965,7 +987,9 @@
       <c r="O9" s="5" t="n">
         <v>0.6122895902077243</v>
       </c>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="n">
+        <v>0.5420952665662145</v>
+      </c>
       <c r="Q9" s="5" t="n">
         <v>0.5393050315004021</v>
       </c>
@@ -974,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -987,7 +1011,7 @@
         <v>0.2266301883154626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>0.3153784294817685</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3037967633153937</v>
@@ -1002,7 +1026,7 @@
         <v>0.2644237128671653</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
+        <v>0.2889105231327622</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>0.2866421875127597</v>
@@ -1017,7 +1041,7 @@
         <v>0.2464790928932243</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0</v>
+        <v>0.3015098601257333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>0.2950521358554759</v>
@@ -1039,7 +1063,9 @@
       <c r="E11" s="5" t="n">
         <v>0.1846277893172221</v>
       </c>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>0.2549792668648256</v>
+      </c>
       <c r="G11" s="5" t="n">
         <v>0.2475215764103706</v>
       </c>
@@ -1052,7 +1078,9 @@
       <c r="J11" s="5" t="n">
         <v>0.2261457695847072</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>0.2434712932057561</v>
+      </c>
       <c r="L11" s="5" t="n">
         <v>0.2403804488497097</v>
       </c>
@@ -1065,7 +1093,9 @@
       <c r="O11" s="5" t="n">
         <v>0.2195549369613563</v>
       </c>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="n">
+        <v>0.2614442750125236</v>
+      </c>
       <c r="Q11" s="5" t="n">
         <v>0.2610844370332551</v>
       </c>
@@ -1086,7 +1116,9 @@
       <c r="E12" s="5" t="n">
         <v>0.271686830910044</v>
       </c>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>0.4391543312858924</v>
+      </c>
       <c r="G12" s="5" t="n">
         <v>0.369765379718564</v>
       </c>
@@ -1099,7 +1131,9 @@
       <c r="J12" s="5" t="n">
         <v>0.3046619084254284</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.3391180279654638</v>
+      </c>
       <c r="L12" s="5" t="n">
         <v>0.3347546473612653</v>
       </c>
@@ -1112,7 +1146,9 @@
       <c r="O12" s="5" t="n">
         <v>0.2781031521030539</v>
       </c>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="n">
+        <v>0.3596087206704597</v>
+      </c>
       <c r="Q12" s="5" t="n">
         <v>0.3351936938204017</v>
       </c>
@@ -1125,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1138,7 +1174,7 @@
         <v>0.2120910128061183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0</v>
+        <v>0.1765352378141892</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2267571709245685</v>
@@ -1153,7 +1189,7 @@
         <v>0.1925583533188284</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0</v>
+        <v>0.2004468475806142</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>0.2605849909551979</v>
@@ -1168,7 +1204,7 @@
         <v>0.202369942184058</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>0</v>
+        <v>0.1884736793627765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>0.24270265245991</v>
@@ -1190,7 +1226,9 @@
       <c r="E14" s="5" t="n">
         <v>0.166980016286643</v>
       </c>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>0.1288051033772384</v>
+      </c>
       <c r="G14" s="5" t="n">
         <v>0.1221474965783302</v>
       </c>
@@ -1203,7 +1241,9 @@
       <c r="J14" s="5" t="n">
         <v>0.1585000540764759</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>0.1588018319087242</v>
+      </c>
       <c r="L14" s="5" t="n">
         <v>0.1851233972025902</v>
       </c>
@@ -1216,7 +1256,9 @@
       <c r="O14" s="5" t="n">
         <v>0.1728722009297495</v>
       </c>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="n">
+        <v>0.1559509617216822</v>
+      </c>
       <c r="Q14" s="5" t="n">
         <v>0.1767844723465338</v>
       </c>
@@ -1237,7 +1279,9 @@
       <c r="E15" s="5" t="n">
         <v>0.2579476558359342</v>
       </c>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>0.2273625023921123</v>
+      </c>
       <c r="G15" s="5" t="n">
         <v>0.4444814965979698</v>
       </c>
@@ -1250,7 +1294,9 @@
       <c r="J15" s="5" t="n">
         <v>0.2405314650152707</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.2475553481132297</v>
+      </c>
       <c r="L15" s="5" t="n">
         <v>0.3589646199992723</v>
       </c>
@@ -1263,7 +1309,9 @@
       <c r="O15" s="5" t="n">
         <v>0.2349791597458934</v>
       </c>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="n">
+        <v>0.2227794891584216</v>
+      </c>
       <c r="Q15" s="5" t="n">
         <v>0.3621407790057005</v>
       </c>
@@ -1272,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1285,7 +1333,7 @@
         <v>0.5673707483003324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0</v>
+        <v>0.6068008208825122</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5135153064937475</v>
@@ -1300,7 +1348,7 @@
         <v>0.5549131553977594</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0</v>
+        <v>0.5007530898567613</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>0.5040413262631682</v>
@@ -1315,7 +1363,7 @@
         <v>0.5611708173351921</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>0.5538539615711443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>0.5090495390663429</v>
@@ -1337,7 +1385,9 @@
       <c r="E17" s="5" t="n">
         <v>0.5106557707453936</v>
       </c>
-      <c r="F17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>0.5510950969556223</v>
+      </c>
       <c r="G17" s="5" t="n">
         <v>0.3644297559618881</v>
       </c>
@@ -1350,7 +1400,9 @@
       <c r="J17" s="5" t="n">
         <v>0.5094178107237475</v>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
+      <c r="K17" s="5" t="n">
+        <v>0.4481100888816195</v>
+      </c>
       <c r="L17" s="5" t="n">
         <v>0.4022369980038928</v>
       </c>
@@ -1363,7 +1415,9 @@
       <c r="O17" s="5" t="n">
         <v>0.5237896741443783</v>
       </c>
-      <c r="P17" s="5" t="inlineStr"/>
+      <c r="P17" s="5" t="n">
+        <v>0.5092466790514597</v>
+      </c>
       <c r="Q17" s="5" t="n">
         <v>0.4136912787414485</v>
       </c>
@@ -1384,7 +1438,9 @@
       <c r="E18" s="5" t="n">
         <v>0.6208555280321184</v>
       </c>
-      <c r="F18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>0.6796528129291131</v>
+      </c>
       <c r="G18" s="5" t="n">
         <v>0.6111993252223167</v>
       </c>
@@ -1397,7 +1453,9 @@
       <c r="J18" s="5" t="n">
         <v>0.6074041335785119</v>
       </c>
-      <c r="K18" s="5" t="inlineStr"/>
+      <c r="K18" s="5" t="n">
+        <v>0.5563067892514815</v>
+      </c>
       <c r="L18" s="5" t="n">
         <v>0.6112239251218914</v>
       </c>
@@ -1410,7 +1468,9 @@
       <c r="O18" s="5" t="n">
         <v>0.5976395362611776</v>
       </c>
-      <c r="P18" s="5" t="inlineStr"/>
+      <c r="P18" s="5" t="n">
+        <v>0.5976142732496219</v>
+      </c>
       <c r="Q18" s="5" t="n">
         <v>0.5866566242855831</v>
       </c>
@@ -1419,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1432,7 +1492,7 @@
         <v>0.2205382388935494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0</v>
+        <v>0.2166639413032986</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2597275225816838</v>
@@ -1447,7 +1507,7 @@
         <v>0.2525284912834124</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0</v>
+        <v>0.2988000625626247</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>0.2353736827816339</v>
@@ -1462,7 +1522,7 @@
         <v>0.2364592404807497</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>0.2576723590660793</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>0.2482478084737471</v>
@@ -1484,7 +1544,9 @@
       <c r="E20" s="5" t="n">
         <v>0.1777166895722523</v>
       </c>
-      <c r="F20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>0.1674549419692772</v>
+      </c>
       <c r="G20" s="5" t="n">
         <v>0.1672765899336307</v>
       </c>
@@ -1497,7 +1559,9 @@
       <c r="J20" s="5" t="n">
         <v>0.2080916933911927</v>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
+      <c r="K20" s="5" t="n">
+        <v>0.2508158693490974</v>
+      </c>
       <c r="L20" s="5" t="n">
         <v>0.1585147328348923</v>
       </c>
@@ -1510,7 +1574,9 @@
       <c r="O20" s="5" t="n">
         <v>0.2092954302335826</v>
       </c>
-      <c r="P20" s="5" t="inlineStr"/>
+      <c r="P20" s="5" t="n">
+        <v>0.2213219874867935</v>
+      </c>
       <c r="Q20" s="5" t="n">
         <v>0.1875122211685766</v>
       </c>
@@ -1531,7 +1597,9 @@
       <c r="E21" s="5" t="n">
         <v>0.264929778625519</v>
       </c>
-      <c r="F21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>0.2704189128739959</v>
+      </c>
       <c r="G21" s="5" t="n">
         <v>0.3552112702977769</v>
       </c>
@@ -1544,7 +1612,9 @@
       <c r="J21" s="5" t="n">
         <v>0.295517751369596</v>
       </c>
-      <c r="K21" s="5" t="inlineStr"/>
+      <c r="K21" s="5" t="n">
+        <v>0.3594582541335167</v>
+      </c>
       <c r="L21" s="5" t="n">
         <v>0.3399535318514354</v>
       </c>
@@ -1557,7 +1627,9 @@
       <c r="O21" s="5" t="n">
         <v>0.2692208708263988</v>
       </c>
-      <c r="P21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="n">
+        <v>0.2976532745086349</v>
+      </c>
       <c r="Q21" s="5" t="n">
         <v>0.318410293879311</v>
       </c>
@@ -1570,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1583,7 +1655,7 @@
         <v>0.2030473688828814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>0.2242257654719661</v>
       </c>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="5" t="n">
@@ -1596,7 +1668,7 @@
         <v>0.1222666833799111</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0</v>
+        <v>0.1547584140142775</v>
       </c>
       <c r="L22" s="5" t="inlineStr"/>
       <c r="M22" s="5" t="n">
@@ -1609,7 +1681,7 @@
         <v>0.1633546573600111</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
+        <v>0.1899464485266017</v>
       </c>
       <c r="Q22" s="5" t="inlineStr"/>
     </row>
@@ -1629,7 +1701,9 @@
       <c r="E23" s="5" t="n">
         <v>0.1347301941067633</v>
       </c>
-      <c r="F23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="n">
+        <v>0.1129557543207406</v>
+      </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
         <v>0.09483054136154817</v>
@@ -1640,7 +1714,9 @@
       <c r="J23" s="5" t="n">
         <v>0.06910147780890874</v>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
+      <c r="K23" s="5" t="n">
+        <v>0.0833029964947168</v>
+      </c>
       <c r="L23" s="5" t="inlineStr"/>
       <c r="M23" s="5" t="n">
         <v>0.152483942996336</v>
@@ -1651,7 +1727,9 @@
       <c r="O23" s="5" t="n">
         <v>0.120449103978843</v>
       </c>
-      <c r="P23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="n">
+        <v>0.1199055261282255</v>
+      </c>
       <c r="Q23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1670,7 +1748,9 @@
       <c r="E24" s="5" t="n">
         <v>0.294682627439</v>
       </c>
-      <c r="F24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="n">
+        <v>0.4056016210417167</v>
+      </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
         <v>0.2340469855371817</v>
@@ -1681,7 +1761,9 @@
       <c r="J24" s="5" t="n">
         <v>0.1892964137088544</v>
       </c>
-      <c r="K24" s="5" t="inlineStr"/>
+      <c r="K24" s="5" t="n">
+        <v>0.2555091235317327</v>
+      </c>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
         <v>0.3461100665062344</v>
@@ -1692,14 +1774,16 @@
       <c r="O24" s="5" t="n">
         <v>0.2164344084523496</v>
       </c>
-      <c r="P24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="n">
+        <v>0.2880122930136275</v>
+      </c>
       <c r="Q24" s="5" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1712,7 +1796,7 @@
         <v>0.5406088088416683</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0</v>
+        <v>0.4156921859439635</v>
       </c>
       <c r="G25" s="5" t="inlineStr"/>
       <c r="H25" s="5" t="n">
@@ -1725,7 +1809,7 @@
         <v>0.6238425432936379</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0</v>
+        <v>0.6292211386476212</v>
       </c>
       <c r="L25" s="5" t="inlineStr"/>
       <c r="M25" s="5" t="n">
@@ -1738,7 +1822,7 @@
         <v>0.5815068600280716</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>0.5210600529080389</v>
       </c>
       <c r="Q25" s="5" t="inlineStr"/>
     </row>
@@ -1758,7 +1842,9 @@
       <c r="E26" s="5" t="n">
         <v>0.4429298047639832</v>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="n">
+        <v>0.2462435039496397</v>
+      </c>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="n">
         <v>0.5232903948937534</v>
@@ -1769,7 +1855,9 @@
       <c r="J26" s="5" t="n">
         <v>0.5297951651345687</v>
       </c>
-      <c r="K26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="n">
+        <v>0.5260836605851928</v>
+      </c>
       <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="n">
         <v>0.4288487495546655</v>
@@ -1780,7 +1868,9 @@
       <c r="O26" s="5" t="n">
         <v>0.5177096255645165</v>
       </c>
-      <c r="P26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="n">
+        <v>0.4151152098250573</v>
+      </c>
       <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1799,7 +1889,9 @@
       <c r="E27" s="5" t="n">
         <v>0.6433221736709153</v>
       </c>
-      <c r="F27" s="5" t="inlineStr"/>
+      <c r="F27" s="5" t="n">
+        <v>0.5605886177516249</v>
+      </c>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="n">
         <v>0.7126944369167101</v>
@@ -1810,7 +1902,9 @@
       <c r="J27" s="5" t="n">
         <v>0.7087974504991563</v>
       </c>
-      <c r="K27" s="5" t="inlineStr"/>
+      <c r="K27" s="5" t="n">
+        <v>0.7354457893436351</v>
+      </c>
       <c r="L27" s="5" t="inlineStr"/>
       <c r="M27" s="5" t="n">
         <v>0.5923193716575835</v>
@@ -1821,14 +1915,16 @@
       <c r="O27" s="5" t="n">
         <v>0.6464973165241588</v>
       </c>
-      <c r="P27" s="5" t="inlineStr"/>
+      <c r="P27" s="5" t="n">
+        <v>0.6216018873027928</v>
+      </c>
       <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1841,7 +1937,7 @@
         <v>0.2563438222754502</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0</v>
+        <v>0.3600820485840703</v>
       </c>
       <c r="G28" s="5" t="inlineStr"/>
       <c r="H28" s="5" t="n">
@@ -1854,7 +1950,7 @@
         <v>0.2538907733264508</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0</v>
+        <v>0.2160204473381014</v>
       </c>
       <c r="L28" s="5" t="inlineStr"/>
       <c r="M28" s="5" t="n">
@@ -1867,7 +1963,7 @@
         <v>0.2551384826119172</v>
       </c>
       <c r="P28" s="5" t="n">
-        <v>0</v>
+        <v>0.2889934985653593</v>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
     </row>
@@ -1887,7 +1983,9 @@
       <c r="E29" s="5" t="n">
         <v>0.1745149741173795</v>
       </c>
-      <c r="F29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="n">
+        <v>0.22192437518374</v>
+      </c>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="n">
         <v>0.155735206583565</v>
@@ -1898,7 +1996,9 @@
       <c r="J29" s="5" t="n">
         <v>0.1839017982823864</v>
       </c>
-      <c r="K29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="n">
+        <v>0.1326735249822084</v>
+      </c>
       <c r="L29" s="5" t="inlineStr"/>
       <c r="M29" s="5" t="n">
         <v>0.2063529873863326</v>
@@ -1909,7 +2009,9 @@
       <c r="O29" s="5" t="n">
         <v>0.2021516338412843</v>
       </c>
-      <c r="P29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="n">
+        <v>0.1954624357738819</v>
+      </c>
       <c r="Q29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1928,7 +2030,9 @@
       <c r="E30" s="5" t="n">
         <v>0.3462748046333033</v>
       </c>
-      <c r="F30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="n">
+        <v>0.585884450482406</v>
+      </c>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="n">
         <v>0.3213426031427644</v>
@@ -1939,7 +2043,9 @@
       <c r="J30" s="5" t="n">
         <v>0.3393676092163834</v>
       </c>
-      <c r="K30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="n">
+        <v>0.3301127102381829</v>
+      </c>
       <c r="L30" s="5" t="inlineStr"/>
       <c r="M30" s="5" t="n">
         <v>0.3541497042627826</v>
@@ -1950,7 +2056,9 @@
       <c r="O30" s="5" t="n">
         <v>0.3177097803752605</v>
       </c>
-      <c r="P30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="n">
+        <v>0.4221761530767142</v>
+      </c>
       <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1961,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1974,7 +2082,7 @@
         <v>0.1920719116025359</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0</v>
+        <v>0.1920736283533737</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>0.2216625124367437</v>
@@ -1989,7 +2097,7 @@
         <v>0.1745087554065301</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0</v>
+        <v>0.196496127822935</v>
       </c>
       <c r="L31" s="5" t="n">
         <v>0.2028156972455612</v>
@@ -2004,7 +2112,7 @@
         <v>0.1831063663960389</v>
       </c>
       <c r="P31" s="5" t="n">
-        <v>0</v>
+        <v>0.1943321530028373</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>0.2122184854689653</v>
@@ -2026,7 +2134,9 @@
       <c r="E32" s="5" t="n">
         <v>0.1649928322884409</v>
       </c>
-      <c r="F32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="n">
+        <v>0.1583928851521489</v>
+      </c>
       <c r="G32" s="5" t="n">
         <v>0.1801550565489055</v>
       </c>
@@ -2039,7 +2149,9 @@
       <c r="J32" s="5" t="n">
         <v>0.1521734547774681</v>
       </c>
-      <c r="K32" s="5" t="inlineStr"/>
+      <c r="K32" s="5" t="n">
+        <v>0.1696104137651927</v>
+      </c>
       <c r="L32" s="5" t="n">
         <v>0.1679549344499407</v>
       </c>
@@ -2052,7 +2164,9 @@
       <c r="O32" s="5" t="n">
         <v>0.1653886932236065</v>
       </c>
-      <c r="P32" s="5" t="inlineStr"/>
+      <c r="P32" s="5" t="n">
+        <v>0.1721854713302911</v>
+      </c>
       <c r="Q32" s="5" t="n">
         <v>0.1843317084866421</v>
       </c>
@@ -2073,7 +2187,9 @@
       <c r="E33" s="5" t="n">
         <v>0.2245868208265051</v>
       </c>
-      <c r="F33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="n">
+        <v>0.2330511619851273</v>
+      </c>
       <c r="G33" s="5" t="n">
         <v>0.2931092510951324</v>
       </c>
@@ -2086,7 +2202,9 @@
       <c r="J33" s="5" t="n">
         <v>0.1978623969175288</v>
       </c>
-      <c r="K33" s="5" t="inlineStr"/>
+      <c r="K33" s="5" t="n">
+        <v>0.2257105848029577</v>
+      </c>
       <c r="L33" s="5" t="n">
         <v>0.2377343292905706</v>
       </c>
@@ -2099,7 +2217,9 @@
       <c r="O33" s="5" t="n">
         <v>0.2039580439419805</v>
       </c>
-      <c r="P33" s="5" t="inlineStr"/>
+      <c r="P33" s="5" t="n">
+        <v>0.2174368405264373</v>
+      </c>
       <c r="Q33" s="5" t="n">
         <v>0.2495722233274492</v>
       </c>
@@ -2108,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2121,7 +2241,7 @@
         <v>0.5800908518452514</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0</v>
+        <v>0.5265854144413885</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.4850769323643962</v>
@@ -2136,7 +2256,7 @@
         <v>0.5667856788349058</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0</v>
+        <v>0.5191666398066563</v>
       </c>
       <c r="L34" s="5" t="n">
         <v>0.5214242020813223</v>
@@ -2151,7 +2271,7 @@
         <v>0.5732988989198629</v>
       </c>
       <c r="P34" s="5" t="n">
-        <v>0</v>
+        <v>0.5227967231149833</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>0.5032903329803455</v>
@@ -2173,7 +2293,9 @@
       <c r="E35" s="5" t="n">
         <v>0.544285228537556</v>
       </c>
-      <c r="F35" s="5" t="inlineStr"/>
+      <c r="F35" s="5" t="n">
+        <v>0.4627034039089137</v>
+      </c>
       <c r="G35" s="5" t="n">
         <v>0.4178593748171374</v>
       </c>
@@ -2186,7 +2308,9 @@
       <c r="J35" s="5" t="n">
         <v>0.5383998385065496</v>
       </c>
-      <c r="K35" s="5" t="inlineStr"/>
+      <c r="K35" s="5" t="n">
+        <v>0.4811169996069747</v>
+      </c>
       <c r="L35" s="5" t="n">
         <v>0.4766515485050664</v>
       </c>
@@ -2199,7 +2323,9 @@
       <c r="O35" s="5" t="n">
         <v>0.5509693438383076</v>
       </c>
-      <c r="P35" s="5" t="inlineStr"/>
+      <c r="P35" s="5" t="n">
+        <v>0.4890025656038196</v>
+      </c>
       <c r="Q35" s="5" t="n">
         <v>0.4675502897709515</v>
       </c>
@@ -2220,7 +2346,9 @@
       <c r="E36" s="5" t="n">
         <v>0.6134674797540735</v>
       </c>
-      <c r="F36" s="5" t="inlineStr"/>
+      <c r="F36" s="5" t="n">
+        <v>0.572380014466002</v>
+      </c>
       <c r="G36" s="5" t="n">
         <v>0.537081024263267</v>
       </c>
@@ -2233,7 +2361,9 @@
       <c r="J36" s="5" t="n">
         <v>0.597709738740459</v>
       </c>
-      <c r="K36" s="5" t="inlineStr"/>
+      <c r="K36" s="5" t="n">
+        <v>0.5532887401854175</v>
+      </c>
       <c r="L36" s="5" t="n">
         <v>0.5631613365548042</v>
       </c>
@@ -2246,7 +2376,9 @@
       <c r="O36" s="5" t="n">
         <v>0.5960469888334877</v>
       </c>
-      <c r="P36" s="5" t="inlineStr"/>
+      <c r="P36" s="5" t="n">
+        <v>0.5530382818106353</v>
+      </c>
       <c r="Q36" s="5" t="n">
         <v>0.5383042308575229</v>
       </c>
@@ -2255,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2268,7 +2400,7 @@
         <v>0.2278372365522126</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0</v>
+        <v>0.2813409572052378</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>0.2932605551988601</v>
@@ -2283,7 +2415,7 @@
         <v>0.2587055657585642</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0</v>
+        <v>0.2843372323704087</v>
       </c>
       <c r="L37" s="5" t="n">
         <v>0.2757601006731164</v>
@@ -2298,7 +2430,7 @@
         <v>0.2435947346840983</v>
       </c>
       <c r="P37" s="5" t="n">
-        <v>0</v>
+        <v>0.2828711238821793</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>0.2844911815506893</v>
@@ -2320,7 +2452,9 @@
       <c r="E38" s="5" t="n">
         <v>0.2004511052056294</v>
       </c>
-      <c r="F38" s="5" t="inlineStr"/>
+      <c r="F38" s="5" t="n">
+        <v>0.2357323033894483</v>
+      </c>
       <c r="G38" s="5" t="n">
         <v>0.246072955086547</v>
       </c>
@@ -2333,7 +2467,9 @@
       <c r="J38" s="5" t="n">
         <v>0.2338799103172038</v>
       </c>
-      <c r="K38" s="5" t="inlineStr"/>
+      <c r="K38" s="5" t="n">
+        <v>0.2539863811742457</v>
+      </c>
       <c r="L38" s="5" t="n">
         <v>0.2381033182452262</v>
       </c>
@@ -2346,7 +2482,9 @@
       <c r="O38" s="5" t="n">
         <v>0.2257577294420725</v>
       </c>
-      <c r="P38" s="5" t="inlineStr"/>
+      <c r="P38" s="5" t="n">
+        <v>0.2554337649223043</v>
+      </c>
       <c r="Q38" s="5" t="n">
         <v>0.2531546653605815</v>
       </c>
@@ -2367,7 +2505,9 @@
       <c r="E39" s="5" t="n">
         <v>0.2566675680507744</v>
       </c>
-      <c r="F39" s="5" t="inlineStr"/>
+      <c r="F39" s="5" t="n">
+        <v>0.3454772482014934</v>
+      </c>
       <c r="G39" s="5" t="n">
         <v>0.3506317835847806</v>
       </c>
@@ -2380,7 +2520,9 @@
       <c r="J39" s="5" t="n">
         <v>0.2869750249814382</v>
       </c>
-      <c r="K39" s="5" t="inlineStr"/>
+      <c r="K39" s="5" t="n">
+        <v>0.3249255139801464</v>
+      </c>
       <c r="L39" s="5" t="n">
         <v>0.3184063935280236</v>
       </c>
@@ -2393,7 +2535,9 @@
       <c r="O39" s="5" t="n">
         <v>0.2622277271283993</v>
       </c>
-      <c r="P39" s="5" t="inlineStr"/>
+      <c r="P39" s="5" t="n">
+        <v>0.3189233628233222</v>
+      </c>
       <c r="Q39" s="5" t="n">
         <v>0.3198236633591027</v>
       </c>
